--- a/output/mysiadlo/2024/sheets/year_2024.xlsx
+++ b/output/mysiadlo/2024/sheets/year_2024.xlsx
@@ -481,55 +481,47 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>51.64516129032258</v>
+        <v>55.72873084853946</v>
       </c>
       <c r="C2" t="n">
-        <v>46.67096774193548</v>
+        <v>50.42172812263806</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>48.22068965517241</v>
+        <v>51.8328808259291</v>
       </c>
       <c r="C3" t="n">
-        <v>37.07586206896552</v>
+        <v>44.74340423405338</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>51.48387096774193</v>
+        <v>54.49233310081031</v>
       </c>
       <c r="C4" t="n">
-        <v>48.37419354838709</v>
+        <v>49.99870578898562</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>55.03333333333333</v>
+        <v>57.37559472938401</v>
       </c>
       <c r="C5" t="n">
-        <v>50.76999999999999</v>
+        <v>51.77353149372092</v>
       </c>
     </row>
   </sheetData>
